--- a/grafy/zaci-gymnazia.xlsx
+++ b/grafy/zaci-gymnazia.xlsx
@@ -215,23 +215,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67374464"/>
-        <c:axId val="81304192"/>
+        <c:axId val="88531712"/>
+        <c:axId val="88534016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67374464"/>
+        <c:axId val="88531712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81304192"/>
+        <c:crossAx val="88534016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81304192"/>
+        <c:axId val="88534016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -239,7 +239,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67374464"/>
+        <c:crossAx val="88531712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -252,7 +252,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -428,23 +428,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67701376"/>
-        <c:axId val="67711360"/>
+        <c:axId val="128535552"/>
+        <c:axId val="128574208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67701376"/>
+        <c:axId val="128535552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67711360"/>
+        <c:crossAx val="128574208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67711360"/>
+        <c:axId val="128574208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +452,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67701376"/>
+        <c:crossAx val="128535552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -465,7 +465,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -483,8 +483,8 @@
           <c:yMode val="edge"/>
           <c:x val="8.6071741032370933E-2"/>
           <c:y val="5.1400554097404488E-2"/>
-          <c:w val="0.86474212598425171"/>
-          <c:h val="0.73114838384927927"/>
+          <c:w val="0.8647421259842516"/>
+          <c:h val="0.73114838384927938"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -503,11 +503,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>List1!$A$5:$A$13</c:f>
@@ -595,11 +590,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
               <c:f>List1!$A$5:$A$13</c:f>
@@ -673,11 +663,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67753472"/>
-        <c:axId val="67760128"/>
+        <c:axId val="129447808"/>
+        <c:axId val="129454464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67753472"/>
+        <c:axId val="129447808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -714,13 +704,13 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67760128"/>
+        <c:crossAx val="129454464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67760128"/>
+        <c:axId val="129454464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="210"/>
@@ -740,7 +730,7 @@
             <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67753472"/>
+        <c:crossAx val="129447808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -772,8 +762,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -900,23 +890,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67783296"/>
-        <c:axId val="67797376"/>
+        <c:axId val="129469440"/>
+        <c:axId val="129487616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67783296"/>
+        <c:axId val="129469440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67797376"/>
+        <c:crossAx val="129487616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67797376"/>
+        <c:axId val="129487616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +914,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67783296"/>
+        <c:crossAx val="129469440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -933,7 +923,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0" l="0" r="0" t="0" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1109,23 +1099,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="54150272"/>
-        <c:axId val="54144384"/>
+        <c:axId val="129520768"/>
+        <c:axId val="129522304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54150272"/>
+        <c:axId val="129520768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54144384"/>
+        <c:crossAx val="129522304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54144384"/>
+        <c:axId val="129522304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,7 +1123,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54150272"/>
+        <c:crossAx val="129520768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1146,7 +1136,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1177,7 +1167,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15238188976377953"/>
-          <c:y val="1.3888888888888888E-2"/>
+          <c:y val="1.3888888888888892E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -1187,9 +1177,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11286351706036746"/>
-          <c:y val="0.21806722076407115"/>
-          <c:w val="0.80714348206474196"/>
+          <c:x val="0.11286351706036744"/>
+          <c:y val="0.2180672207640712"/>
+          <c:w val="0.80714348206474207"/>
           <c:h val="0.66595290172061827"/>
         </c:manualLayout>
       </c:layout>
@@ -1279,11 +1269,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="67512960"/>
-        <c:axId val="67511424"/>
+        <c:axId val="129547648"/>
+        <c:axId val="129553536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67512960"/>
+        <c:axId val="129547648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42000"/>
@@ -1292,23 +1282,23 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="d/m/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67511424"/>
+        <c:crossAx val="129553536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="731"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67511424"/>
+        <c:axId val="129553536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.19"/>
-          <c:min val="0.15000000000000002"/>
+          <c:min val="0.15000000000000005"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67512960"/>
+        <c:crossAx val="129547648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1317,7 +1307,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1800,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2190,7 +2180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
